--- a/Code input - group 2.xlsx
+++ b/Code input - group 2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nacer\Google Drive\York\TA\Year 3\ESSE3670\Project 2\Input_files\Group 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C60F8C4B-408F-4C24-92BE-94192B906D2E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2987B184-70D7-4F9E-BE94-53BF49C28E2D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{1CDC1E50-86E6-4D0F-A484-E885E6B05FE7}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>PRN</t>
   </si>
@@ -64,87 +64,6 @@
   </si>
   <si>
     <t>Z_precise [m]</t>
-  </si>
-  <si>
-    <t>21650781.511</t>
-  </si>
-  <si>
-    <t>23235117.070</t>
-  </si>
-  <si>
-    <t>20348383.391</t>
-  </si>
-  <si>
-    <t>23625699.884</t>
-  </si>
-  <si>
-    <t>22021695.832</t>
-  </si>
-  <si>
-    <t>23647425.996</t>
-  </si>
-  <si>
-    <t>-8361295.885</t>
-  </si>
-  <si>
-    <t>-19353424.714</t>
-  </si>
-  <si>
-    <t>16809694.424</t>
-  </si>
-  <si>
-    <t>-8361.253177</t>
-  </si>
-  <si>
-    <t>-17025.936908</t>
-  </si>
-  <si>
-    <t>8968.442043</t>
-  </si>
-  <si>
-    <t>-14936.828459</t>
-  </si>
-  <si>
-    <t>-11865.176963</t>
-  </si>
-  <si>
-    <t>-13130.905007</t>
-  </si>
-  <si>
-    <t>-19353.461716</t>
-  </si>
-  <si>
-    <t>19887.84538</t>
-  </si>
-  <si>
-    <t>13789.95266</t>
-  </si>
-  <si>
-    <t>390.81976</t>
-  </si>
-  <si>
-    <t>-16056.004068</t>
-  </si>
-  <si>
-    <t>-23097.355524</t>
-  </si>
-  <si>
-    <t>16809.80073</t>
-  </si>
-  <si>
-    <t>-2158.417791</t>
-  </si>
-  <si>
-    <t>20847.344462</t>
-  </si>
-  <si>
-    <t>21748.500373</t>
-  </si>
-  <si>
-    <t>17790.462746</t>
-  </si>
-  <si>
-    <t>1498.096138</t>
   </si>
 </sst>
 </file>
@@ -221,9 +140,15 @@
     <tableColumn id="4" xr3:uid="{5C7CB01D-8CB6-4491-8FB8-84D3AF370C95}" name="X_broadcast [m]"/>
     <tableColumn id="5" xr3:uid="{52714FB9-8FDB-4378-9DC8-D7C5929312FB}" name="Y_broadcast [m]"/>
     <tableColumn id="6" xr3:uid="{6FC076DB-C938-4307-AAB3-13F293CA4198}" name="Z_broadcast [m]"/>
-    <tableColumn id="7" xr3:uid="{FCC38712-B50A-4923-B117-CC22B3681560}" name="X_precise [m]"/>
-    <tableColumn id="8" xr3:uid="{CD492C06-25F4-4324-B630-6BA658A86F42}" name="Y_precise [m]"/>
-    <tableColumn id="9" xr3:uid="{8B4FB205-7B50-42E9-9746-61895732BAF7}" name="Z_precise [m]"/>
+    <tableColumn id="7" xr3:uid="{FCC38712-B50A-4923-B117-CC22B3681560}" name="X_precise [m]">
+      <calculatedColumnFormula>Table1[[#This Row],[X_precise '[m']]]*1000</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{CD492C06-25F4-4324-B630-6BA658A86F42}" name="Y_precise [m]">
+      <calculatedColumnFormula>Table1[[#This Row],[Y_precise '[m']]]*1000</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{8B4FB205-7B50-42E9-9746-61895732BAF7}" name="Z_precise [m]">
+      <calculatedColumnFormula>Table1[[#This Row],[Z_precise '[m']]]*1000</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -529,7 +454,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="F16" sqref="F16:H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -578,26 +503,29 @@
       <c r="B6" s="1">
         <v>0.25</v>
       </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I6" t="s">
-        <v>31</v>
+      <c r="C6">
+        <v>21650781.511</v>
+      </c>
+      <c r="D6" s="3">
+        <v>-8361295.8849999998</v>
+      </c>
+      <c r="E6" s="3">
+        <v>-19353424.714000002</v>
+      </c>
+      <c r="F6">
+        <v>16809694.423999999</v>
+      </c>
+      <c r="G6">
+        <f ca="1">Table1[[#This Row],[X_precise '[m']]]*1000</f>
+        <v>-8361253.1770000001</v>
+      </c>
+      <c r="H6">
+        <f ca="1">Table1[[#This Row],[Y_precise '[m']]]*1000</f>
+        <v>-19353461.716000002</v>
+      </c>
+      <c r="I6">
+        <f ca="1">Table1[[#This Row],[Z_precise '[m']]]*1000</f>
+        <v>16809800.73</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -607,17 +535,20 @@
       <c r="B7" s="2">
         <v>5.2083333333333336E-2</v>
       </c>
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" t="s">
-        <v>26</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>32</v>
+      <c r="C7">
+        <v>23235117.07</v>
+      </c>
+      <c r="G7">
+        <f ca="1">Table1[[#This Row],[X_precise '[m']]]*1000</f>
+        <v>16037503.134</v>
+      </c>
+      <c r="H7">
+        <f ca="1">Table1[[#This Row],[Y_precise '[m']]]*1000</f>
+        <v>-12514230.489</v>
+      </c>
+      <c r="I7">
+        <f ca="1">Table1[[#This Row],[Z_precise '[m']]]*1000</f>
+        <v>17602429.605</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -627,17 +558,20 @@
       <c r="B8" s="2">
         <v>0.125</v>
       </c>
-      <c r="C8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H8" t="s">
-        <v>27</v>
-      </c>
-      <c r="I8" t="s">
-        <v>33</v>
+      <c r="C8">
+        <v>20348383.390999999</v>
+      </c>
+      <c r="G8">
+        <f ca="1">Table1[[#This Row],[X_precise '[m']]]*1000</f>
+        <v>8213951.432</v>
+      </c>
+      <c r="H8">
+        <f ca="1">Table1[[#This Row],[Y_precise '[m']]]*1000</f>
+        <v>-19546552.427999999</v>
+      </c>
+      <c r="I8">
+        <f ca="1">Table1[[#This Row],[Z_precise '[m']]]*1000</f>
+        <v>15988936.472999999</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -647,17 +581,20 @@
       <c r="B9" s="2">
         <v>0.64583333333333337</v>
       </c>
-      <c r="C9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H9" t="s">
-        <v>28</v>
-      </c>
-      <c r="I9" t="s">
-        <v>34</v>
+      <c r="C9">
+        <v>23625699.884</v>
+      </c>
+      <c r="G9">
+        <f ca="1">Table1[[#This Row],[X_precise '[m']]]*1000</f>
+        <v>-14936828.459000001</v>
+      </c>
+      <c r="H9">
+        <f ca="1">Table1[[#This Row],[Y_precise '[m']]]*1000</f>
+        <v>390819.75999999995</v>
+      </c>
+      <c r="I9">
+        <f ca="1">Table1[[#This Row],[Z_precise '[m']]]*1000</f>
+        <v>21748500.373</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -667,17 +604,20 @@
       <c r="B10" s="2">
         <v>0.73958333333333337</v>
       </c>
-      <c r="C10" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I10" t="s">
-        <v>35</v>
+      <c r="C10">
+        <v>22021695.831999999</v>
+      </c>
+      <c r="G10">
+        <f ca="1">Table1[[#This Row],[X_precise '[m']]]*1000</f>
+        <v>-11865176.963</v>
+      </c>
+      <c r="H10">
+        <f ca="1">Table1[[#This Row],[Y_precise '[m']]]*1000</f>
+        <v>-16056004.068</v>
+      </c>
+      <c r="I10">
+        <f ca="1">Table1[[#This Row],[Z_precise '[m']]]*1000</f>
+        <v>17790462.745999999</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -687,17 +627,20 @@
       <c r="B11" s="2">
         <v>0.84375</v>
       </c>
-      <c r="C11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="I11" t="s">
-        <v>36</v>
+      <c r="C11">
+        <v>23647425.995999999</v>
+      </c>
+      <c r="G11">
+        <f ca="1">Table1[[#This Row],[X_precise '[m']]]*1000</f>
+        <v>-13130905.006999999</v>
+      </c>
+      <c r="H11">
+        <f ca="1">Table1[[#This Row],[Y_precise '[m']]]*1000</f>
+        <v>-23097355.524</v>
+      </c>
+      <c r="I11">
+        <f ca="1">Table1[[#This Row],[Z_precise '[m']]]*1000</f>
+        <v>1498096.138</v>
       </c>
     </row>
   </sheetData>
